--- a/App_Templates/ERPCRTemplate.xlsx
+++ b/App_Templates/ERPCRTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="150" windowWidth="19155" windowHeight="8385"/>
@@ -10,33 +10,25 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Data!$B$3:$M$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Data!$B$3:$N$8</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"> Change Subject</t>
   </si>
   <si>
     <t xml:space="preserve"> Change Detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Requested
- On</t>
   </si>
   <si>
     <t xml:space="preserve"> Requested
  By</t>
   </si>
   <si>
-    <t xml:space="preserve"> Approved 
-On</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Approved
 By</t>
   </si>
@@ -63,16 +55,27 @@
   </si>
   <si>
     <t>LN Change request details</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Approved 
+On</t>
+  </si>
+  <si>
+    <t>Requested
+ On</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,24 +393,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -443,6 +428,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,6 +536,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -567,6 +571,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -742,172 +747,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M13"/>
+  <dimension ref="B1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5:J7"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="8.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="37.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="49.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="5" customWidth="1"/>
     <col min="10" max="10" width="19" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="13" style="6" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="22.5" customHeight="1"/>
-    <row r="2" spans="2:13" ht="22.5" customHeight="1" thickBot="1"/>
-    <row r="3" spans="2:13" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B3" s="29" t="s">
+    <row r="1" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
+    </row>
+    <row r="4" spans="2:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-    </row>
-    <row r="4" spans="2:13" ht="39" thickBot="1">
-      <c r="B4" s="17" t="s">
+      <c r="I4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="L4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="20" t="s">
+      <c r="M4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="21" t="s">
+      <c r="N4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="12.75">
+    </row>
+    <row r="5" spans="2:14" ht="12.75" x14ac:dyDescent="0.15">
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="27"/>
+      <c r="J5" s="21"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6" spans="2:13" ht="12.75">
+      <c r="M5" s="16"/>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="2:14" ht="12.75" x14ac:dyDescent="0.15">
       <c r="B6" s="11"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="28"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="2:13" ht="12.75">
+      <c r="M6" s="9"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="2:14" ht="12.75" x14ac:dyDescent="0.15">
       <c r="B7" s="11"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="28"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="24"/>
-    </row>
-    <row r="8" spans="2:13" ht="20.25" thickBot="1">
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="34"/>
-    </row>
-    <row r="9" spans="2:13">
+      <c r="M7" s="9"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="28"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B8:N8"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
